--- a/operate/src/main/resources/excel/activity_product_template.xlsx
+++ b/operate/src/main/resources/excel/activity_product_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guojiayu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guojiayu/code/uoms/operate/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="520" windowWidth="28160" windowHeight="15140" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="520" windowWidth="28160" windowHeight="15140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="活动商品列表" sheetId="1" r:id="rId1"/>
@@ -33,23 +33,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>最低单价（元/件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>最低单价（元/件）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*活动力度（%）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*非活动售价（元/件）</t>
+    <t>活动力度（%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非活动售价（元/件）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动属性【主推，参活，正常】</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -57,6 +57,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -123,17 +127,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -414,41 +427,41 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/operate/src/main/resources/excel/activity_product_template.xlsx
+++ b/operate/src/main/resources/excel/activity_product_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>商品ID</t>
   </si>
@@ -38,10 +38,6 @@
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动力度（%）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -427,7 +423,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,11 +433,11 @@
     <col min="3" max="3" width="26.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="47.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="31.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -455,13 +451,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/operate/src/main/resources/excel/activity_product_template.xlsx
+++ b/operate/src/main/resources/excel/activity_product_template.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guojiayu/code/uoms/operate/src/main/resources/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="520" windowWidth="28160" windowHeight="15140" tabRatio="500"/>
+    <workbookView xWindow="645" yWindow="525" windowWidth="28155" windowHeight="15135" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="活动商品列表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,38 +21,144 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>商品ID</t>
-  </si>
-  <si>
-    <t>ERP货号</t>
+    <r>
+      <t>商品ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据类型：文本型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>最低单价（元/件）</t>
+    <r>
+      <t>ERP货号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据类型：文本型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
+    <t>名称[数据类型：文本型]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>非活动售价（元/件）</t>
+    <r>
+      <t>最低单价（元/件）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据类型：数值型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>活动属性【主推，参活，正常】</t>
+    <t>非活动售价（元/件）[数据类型：数值型]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动属性[主推，参活，正常][数据类型：文本型]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,26 +224,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -200,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -235,7 +333,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -412,53 +510,54 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="47.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="31.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/operate/src/main/resources/excel/activity_product_template.xlsx
+++ b/operate/src/main/resources/excel/activity_product_template.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guojiayu/code/uoms2/operate/src/main/resources/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="645" yWindow="525" windowWidth="28155" windowHeight="15135" tabRatio="500"/>
+    <workbookView xWindow="2420" yWindow="3440" windowWidth="28800" windowHeight="15680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="活动商品列表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">活动商品列表!$D$1:$D$2</definedName>
+  </definedNames>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,144 +29,84 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <r>
-      <t>商品ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据类型：文本型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
+    <t>名称&lt;文本型&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>ERP货号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据类型：文本型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
+    <t>非活动日常单价（元/件）&lt;数值型&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>fei huo don</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ri c</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dan j</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>名称[数据类型：文本型]</t>
+    <t>活动机制&lt;文本型&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>huo don</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wen ben xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xing</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>最低单价（元/件）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据类型：数值型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
+    <t>活动通知体现最低单价（元/件）&lt;数值型&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>huo don</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zui di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dan jia</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jian</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>非活动售价（元/件）[数据类型：数值型]</t>
+    <t>活动期间体现最低单价（元/件）&lt;数值型&gt;</t>
+    <rPh sb="2" eb="3">
+      <t>qi j</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>活动属性[主推，参活，正常][数据类型：文本型]</t>
+    <t>商品ID&lt;文本型&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -510,53 +458,65 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="31.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"活动价,满件打折,满元减钱,特价"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/operate/src/main/resources/excel/activity_product_template.xlsx
+++ b/operate/src/main/resources/excel/activity_product_template.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guojiayu/code/uoms2/operate/src/main/resources/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="3440" windowWidth="28800" windowHeight="15680" tabRatio="500"/>
+    <workbookView xWindow="2415" yWindow="3435" windowWidth="28800" windowHeight="15675" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="活动商品列表" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">活动商品列表!$D$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -101,12 +96,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -458,32 +453,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -503,12 +497,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G3"/>
-    </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/operate/src/main/resources/excel/activity_product_template.xlsx
+++ b/operate/src/main/resources/excel/activity_product_template.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guojiayu/code/uoms2/operate/src/main/resources/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="3435" windowWidth="28800" windowHeight="15675" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="活动商品列表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">活动商品列表!$D$1:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">活动商品列表!$D$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,94 +27,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>名称&lt;文本型&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非活动日常单价（元/件）&lt;数值型&gt;</t>
-    <rPh sb="0" eb="1">
-      <t>fei huo don</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ri c</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>dan j</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动机制&lt;文本型&gt;</t>
-    <rPh sb="0" eb="1">
-      <t>huo don</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji zhi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wen ben xing</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xing</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动通知体现最低单价（元/件）&lt;数值型&gt;</t>
-    <rPh sb="0" eb="1">
-      <t>huo don</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tong zhi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ti</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zui di</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dan jia</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yuan</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>jian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动期间体现最低单价（元/件）&lt;数值型&gt;</t>
-    <rPh sb="2" eb="3">
-      <t>qi j</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID&lt;文本型&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常商品单价
+（元/件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺活动机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满元减钱面额
+（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立减金额
+（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动商品单价
+（元/件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满件打折
+（折）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满元减钱门槛
+（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +94,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -169,20 +152,20 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,56 +436,70 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.5" style="4" customWidth="1"/>
+    <col min="1" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
       <formula1>"活动价,满件打折,满元减钱,特价"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>"满件打折,满元减钱,特价秒杀,预售付尾立减"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/operate/src/main/resources/excel/activity_product_template.xlsx
+++ b/operate/src/main/resources/excel/activity_product_template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>商品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,18 +56,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>满件打折
+（折）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满元减钱门槛
+（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>活动商品单价
 （元/件）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>满件打折
-（折）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满元减钱门槛
-（元）</t>
+    <t>利益点适用场景</t>
+    <rPh sb="0" eb="1">
+      <t>l yi dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi yon</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>c j</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,9 +473,10 @@
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -473,33 +487,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
-      <formula1>"活动价,满件打折,满元减钱,特价"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"满件打折,满元减钱,特价秒杀,预售付尾立减"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+      <formula1>"活动通知,活动期间,整个活动"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/operate/src/main/resources/excel/activity_product_template.xlsx
+++ b/operate/src/main/resources/excel/activity_product_template.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guojiayu/code/uoms2/operate/src/main/resources/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15675" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="活动商品列表" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">活动商品列表!$D$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -87,12 +82,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -449,34 +444,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="34.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -513,7 +508,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"满件打折,满元减钱,特价秒杀,预售付尾立减"</formula1>
+      <formula1>"满件打折,满元减钱,特价秒杀,预售付尾立减,无店铺活动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
       <formula1>"活动通知,活动期间,整个活动"</formula1>

--- a/operate/src/main/resources/excel/activity_product_template.xlsx
+++ b/operate/src/main/resources/excel/activity_product_template.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guojiayu/code/uoms2/operate/src/main/resources/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15675" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="活动商品列表" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">活动商品列表!$D$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>商品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,31 +68,18 @@
   <si>
     <t>活动商品单价
 （元/件）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利益点适用场景</t>
-    <rPh sb="0" eb="1">
-      <t>l yi dian</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shi yon</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>c j</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -444,34 +436,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="34.5">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -498,20 +489,14 @@
       </c>
       <c r="I1" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"满件打折,满元减钱,特价秒杀,预售付尾立减,无店铺活动"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
-      <formula1>"活动通知,活动期间,整个活动"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/operate/src/main/resources/excel/activity_product_template.xlsx
+++ b/operate/src/main/resources/excel/activity_product_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guojiayu/code/uoms2/operate/src/main/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guojiayu/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15680" tabRatio="500"/>
+    <workbookView xWindow="2420" yWindow="9660" windowWidth="28800" windowHeight="15680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="活动商品列表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>商品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,28 +46,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>满元减钱面额
+    <t>报名活动单价
+（元/件）</t>
+    <rPh sb="0" eb="1">
+      <t>bao m</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huo don</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立减特价金额（元）</t>
+    <rPh sb="0" eb="1">
+      <t>li jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>te j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji ne</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单品券门槛
 （元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立减金额
+    <rPh sb="0" eb="1">
+      <t>dan p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>men kan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单品券面额
 （元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满件打折
+    <rPh sb="0" eb="1">
+      <t>dan p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mian e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单品券</t>
+    <rPh sb="0" eb="1">
+      <t>dan p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满件打折力度
 （折）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满元减钱门槛
-（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动商品单价
-（元/件）</t>
+    <rPh sb="4" eb="5">
+      <t>li du</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -459,10 +504,10 @@
     <col min="6" max="6" width="13.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="9" max="10" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -473,30 +518,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"满件打折,满元减钱,特价秒杀,预售付尾立减,无店铺活动"</formula1>
+      <formula1>"满件打折,立减特价,仅店铺券"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>"有,无"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/operate/src/main/resources/excel/activity_product_template.xlsx
+++ b/operate/src/main/resources/excel/activity_product_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guojiayu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guojiayu/code/uoms2/operate/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="9660" windowWidth="28800" windowHeight="15680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="活动商品列表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>商品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,17 @@
 （折）</t>
     <rPh sb="4" eb="5">
       <t>li du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满件打折件数
+（件）</t>
+    <rPh sb="4" eb="5">
+      <t>jian shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -489,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,13 +512,13 @@
     <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="10" width="14.83203125" customWidth="1"/>
+    <col min="6" max="7" width="13.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="11" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -524,18 +535,21 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -546,7 +560,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"满件打折,立减特价,仅店铺券"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>"有,无"</formula1>
     </dataValidation>
   </dataValidations>

--- a/operate/src/main/resources/excel/activity_product_template.xlsx
+++ b/operate/src/main/resources/excel/activity_product_template.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15680" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="活动商品列表" sheetId="1" r:id="rId1"/>
+    <sheet name="数据规范" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">活动商品列表!$D$1:$D$1</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>商品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +124,92 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本型数据</t>
+    <rPh sb="0" eb="1">
+      <t>wen ben xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本型数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值型数据</t>
+    <rPh sb="0" eb="1">
+      <t>shu zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值型数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限定值，从下拉列表选</t>
+    <rPh sb="0" eb="1">
+      <t>xian ding zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>con</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xia la</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lie b</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限定值，从下拉列表选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值型数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值型数据，示例如8折和85折：8/85 或者 0.8/0.85</t>
+    <rPh sb="6" eb="7">
+      <t>shi fan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>li zi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>he</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>huo z</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,4 +654,103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="59.5" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="32.83203125" customWidth="1"/>
+    <col min="10" max="10" width="22.5" customWidth="1"/>
+    <col min="11" max="11" width="23.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>